--- a/excel/import/dataapotek.xlsx
+++ b/excel/import/dataapotek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbenastey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84914634-B742-44AE-86C1-60305179F8FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F64335-93C2-471A-844A-6B09215B48E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{D30C9278-207D-415C-9E7B-8C0ACF7B1875}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{D30C9278-207D-415C-9E7B-8C0ACF7B1875}"/>
   </bookViews>
   <sheets>
     <sheet name="pasien" sheetId="1" r:id="rId1"/>
@@ -3917,7 +3917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECE7FFA-EC79-4AC4-81F2-57E9B2BDEA11}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
@@ -5659,8 +5659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DCE455-24F8-40A3-9DBD-6B03502EDB14}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5993,7 +5993,7 @@
         <v>133</v>
       </c>
       <c r="E19" s="4">
-        <v>43770.580833333297</v>
+        <v>43405.580833333333</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6061,7 +6061,7 @@
         <v>134</v>
       </c>
       <c r="E23" s="4">
-        <v>43770.581446759301</v>
+        <v>43040.581446759257</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -6248,7 +6248,7 @@
         <v>135</v>
       </c>
       <c r="E34" s="4">
-        <v>43770.591805555603</v>
+        <v>42675.591805555552</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -6265,7 +6265,7 @@
         <v>135</v>
       </c>
       <c r="E35" s="4">
-        <v>43770.592395833301</v>
+        <v>42676.591805497686</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -6282,7 +6282,7 @@
         <v>135</v>
       </c>
       <c r="E36" s="4">
-        <v>43770.592395833301</v>
+        <v>42677.591805497686</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -6299,7 +6299,7 @@
         <v>135</v>
       </c>
       <c r="E37" s="4">
-        <v>43770.592395833301</v>
+        <v>42678.591805497686</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -6316,7 +6316,7 @@
         <v>136</v>
       </c>
       <c r="E38" s="4">
-        <v>43770.5932523148</v>
+        <v>42679.591805497686</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -6333,7 +6333,7 @@
         <v>136</v>
       </c>
       <c r="E39" s="4">
-        <v>43770.5932523148</v>
+        <v>42680.591805497686</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -6350,7 +6350,7 @@
         <v>136</v>
       </c>
       <c r="E40" s="4">
-        <v>43770.5932523148</v>
+        <v>42681.591805497686</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -6367,7 +6367,7 @@
         <v>132</v>
       </c>
       <c r="E41" s="4">
-        <v>43770.593715277799</v>
+        <v>42682.591805497686</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
         <v>132</v>
       </c>
       <c r="E42" s="4">
-        <v>43770.593715277799</v>
+        <v>42683.591805497686</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -6401,7 +6401,7 @@
         <v>132</v>
       </c>
       <c r="E43" s="4">
-        <v>43770.594409722202</v>
+        <v>42684.591805497686</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -6418,7 +6418,7 @@
         <v>132</v>
       </c>
       <c r="E44" s="4">
-        <v>43770.594409722202</v>
+        <v>42685.591805497686</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -6435,7 +6435,7 @@
         <v>132</v>
       </c>
       <c r="E45" s="4">
-        <v>43770.594409722202</v>
+        <v>42686.591805497686</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -6452,7 +6452,7 @@
         <v>134</v>
       </c>
       <c r="E46" s="4">
-        <v>43770.594409722202</v>
+        <v>42687.591805497686</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -6469,7 +6469,7 @@
         <v>134</v>
       </c>
       <c r="E47" s="4">
-        <v>43770.594409722202</v>
+        <v>42688.591805497686</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -6486,7 +6486,7 @@
         <v>134</v>
       </c>
       <c r="E48" s="4">
-        <v>43770.605023148099</v>
+        <v>42689.591805497686</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -6503,7 +6503,7 @@
         <v>134</v>
       </c>
       <c r="E49" s="4">
-        <v>43770.605023148099</v>
+        <v>42690.591805497686</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
